--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/PO/008- Purchase order- for Sprinklers concealed.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/PO/008- Purchase order- for Sprinklers concealed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFBE9CD-01C9-434D-87B9-689B94783A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F327B80-AC67-4597-A840-16024474C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,6 +445,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -468,27 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,7 +1056,7 @@
   <dimension ref="A7:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1093,24 +1093,24 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -1122,30 +1122,30 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -1183,7 +1183,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G22" s="24">
         <f>F22*D22</f>
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -1202,14 +1202,14 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="20">
         <f>SUM(G22:G22)</f>
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -1218,11 +1218,11 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20">
         <v>8550</v>
       </c>
@@ -1233,14 +1233,14 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20">
         <f>G23-G24</f>
-        <v>7950</v>
+        <v>13450</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -1256,24 +1256,24 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1311,15 +1311,15 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
@@ -1330,25 +1330,25 @@
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="40">
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="32">
         <v>1000000</v>
       </c>
-      <c r="F42" s="40"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="10"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="10"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1361,19 +1361,19 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="G45" s="10"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
       <c r="G46" s="10"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1383,8 +1383,8 @@
       <c r="C47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="G47" s="10"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1394,21 +1394,14 @@
       <c r="C48" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
       <c r="G48" s="10"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="D47:E47"/>
     <mergeCell ref="A29:G30"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A15:G15"/>
@@ -1417,6 +1410,13 @@
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="D47:E47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
